--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3179224.2239154</v>
+        <v>3176732.274591561</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8429496.27505701</v>
+        <v>8429496.275057008</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>300.2694474761851</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548847</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607225</v>
+        <v>62.22601572607327</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387727</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>140.3783227295922</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>164.7204696297951</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220423</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046871</v>
+        <v>105.0256931046872</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031448</v>
+        <v>63.69429571031478</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.8084985387048</v>
       </c>
       <c r="S3" t="n">
-        <v>64.74357790521296</v>
+        <v>157.8170057799449</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486214</v>
+        <v>197.1557544486215</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>88.91246021898188</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>33.75546894845218</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.1097037866938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>109.8298712008014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>68.66252873273109</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>246.5509201501498</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>119.9750303801821</v>
       </c>
       <c r="G6" t="n">
-        <v>65.52699321158184</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.940631698313854</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>9.579478589972654</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>335.1065969126815</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>220.892030512648</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>108.1854048069368</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.5212963318317</v>
       </c>
       <c r="I13" t="n">
-        <v>30.65104903283332</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>123.9815576456784</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="33">
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>104.8913819999782</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529832</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.7157213271124</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1474.356193025748</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="C2" t="n">
-        <v>1105.393676085337</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="D2" t="n">
-        <v>747.1279774785862</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="E2" t="n">
-        <v>361.339724880342</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="F2" t="n">
-        <v>354.3942241311385</v>
+        <v>955.9197385010534</v>
       </c>
       <c r="G2" t="n">
-        <v>51.0917519329717</v>
+        <v>537.8313468421198</v>
       </c>
       <c r="H2" t="n">
-        <v>51.0917519329717</v>
+        <v>209.3607355237639</v>
       </c>
       <c r="I2" t="n">
-        <v>51.0917519329717</v>
+        <v>51.09175193297131</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710344</v>
+        <v>156.4961545710325</v>
       </c>
       <c r="K2" t="n">
-        <v>435.214835100503</v>
+        <v>435.2148351004989</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311676</v>
+        <v>833.2666318311606</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537229</v>
+        <v>1292.782497537219</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813648</v>
+        <v>1745.101812813635</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132819</v>
+        <v>2127.026478132803</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935774</v>
+        <v>2415.315960935756</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648585</v>
+        <v>2554.587596648566</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309118</v>
+        <v>2491.733035309097</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309118</v>
+        <v>2312.716599815388</v>
       </c>
       <c r="T2" t="n">
-        <v>2491.733035309118</v>
+        <v>2093.536568266156</v>
       </c>
       <c r="U2" t="n">
-        <v>2237.96128326264</v>
+        <v>1839.764816219678</v>
       </c>
       <c r="V2" t="n">
-        <v>2237.96128326264</v>
+        <v>1508.701928876108</v>
       </c>
       <c r="W2" t="n">
-        <v>2237.96128326264</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="X2" t="n">
-        <v>1864.49552500156</v>
+        <v>1366.905643290661</v>
       </c>
       <c r="Y2" t="n">
-        <v>1474.356193025748</v>
+        <v>1366.905643290661</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.6522061135607</v>
+        <v>842.1176481404458</v>
       </c>
       <c r="C3" t="n">
-        <v>814.1991768324337</v>
+        <v>667.6646188593188</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711825</v>
+        <v>518.7302091980675</v>
       </c>
       <c r="E3" t="n">
-        <v>506.027312165727</v>
+        <v>359.4927541926121</v>
       </c>
       <c r="F3" t="n">
-        <v>359.492754192612</v>
+        <v>359.4927541926121</v>
       </c>
       <c r="G3" t="n">
         <v>221.5159830592359</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676328</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.0917519329717</v>
+        <v>51.09175193297131</v>
       </c>
       <c r="J3" t="n">
-        <v>51.0917519329717</v>
+        <v>120.1765123687502</v>
       </c>
       <c r="K3" t="n">
-        <v>207.7339934539401</v>
+        <v>364.8742147270526</v>
       </c>
       <c r="L3" t="n">
-        <v>598.1646481335609</v>
+        <v>755.3048694066717</v>
       </c>
       <c r="M3" t="n">
-        <v>1105.758028360711</v>
+        <v>1262.898249633819</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358689</v>
+        <v>1799.633129631795</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635562</v>
+        <v>2224.225006908666</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153976</v>
+        <v>2547.994353427078</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648585</v>
+        <v>2554.587596648566</v>
       </c>
       <c r="R3" t="n">
-        <v>2554.587596648585</v>
+        <v>2500.235577922601</v>
       </c>
       <c r="S3" t="n">
-        <v>2489.190043208976</v>
+        <v>2340.824460973161</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.042816493196</v>
+        <v>2141.677234257382</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.86880706406</v>
+        <v>1913.503224828245</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1678.351116596503</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104115</v>
+        <v>1424.113759868301</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1216.262259662768</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1008.501960897815</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.0917519329717</v>
+        <v>140.9023178107308</v>
       </c>
       <c r="C4" t="n">
-        <v>51.0917519329717</v>
+        <v>51.09175193297131</v>
       </c>
       <c r="D4" t="n">
-        <v>51.0917519329717</v>
+        <v>51.09175193297131</v>
       </c>
       <c r="E4" t="n">
-        <v>51.0917519329717</v>
+        <v>51.09175193297131</v>
       </c>
       <c r="F4" t="n">
-        <v>51.0917519329717</v>
+        <v>51.09175193297131</v>
       </c>
       <c r="G4" t="n">
-        <v>51.0917519329717</v>
+        <v>51.09175193297131</v>
       </c>
       <c r="H4" t="n">
-        <v>51.0917519329717</v>
+        <v>51.09175193297131</v>
       </c>
       <c r="I4" t="n">
-        <v>51.0917519329717</v>
+        <v>51.09175193297131</v>
       </c>
       <c r="J4" t="n">
-        <v>51.0917519329717</v>
+        <v>51.09175193297131</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771866</v>
+        <v>101.0304570771854</v>
       </c>
       <c r="L4" t="n">
-        <v>220.461240970328</v>
+        <v>220.4612409703257</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486111</v>
+        <v>356.7733802486077</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493218</v>
+        <v>495.2789379493173</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455663</v>
+        <v>607.1949427455609</v>
       </c>
       <c r="P4" t="n">
-        <v>679.437736707143</v>
+        <v>679.4377367071368</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.437736707143</v>
+        <v>645.341303425872</v>
       </c>
       <c r="R4" t="n">
-        <v>679.437736707143</v>
+        <v>645.341303425872</v>
       </c>
       <c r="S4" t="n">
-        <v>679.437736707143</v>
+        <v>430.0789763686055</v>
       </c>
       <c r="T4" t="n">
-        <v>679.437736707143</v>
+        <v>430.0789763686055</v>
       </c>
       <c r="U4" t="n">
-        <v>679.437736707143</v>
+        <v>140.9023178107308</v>
       </c>
       <c r="V4" t="n">
-        <v>679.437736707143</v>
+        <v>140.9023178107308</v>
       </c>
       <c r="W4" t="n">
-        <v>390.0205666701824</v>
+        <v>140.9023178107308</v>
       </c>
       <c r="X4" t="n">
-        <v>162.0310157721651</v>
+        <v>140.9023178107308</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.0917519329717</v>
+        <v>140.9023178107308</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>945.6834051789201</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>576.7208882385085</v>
       </c>
       <c r="D5" t="n">
-        <v>1043.17188115873</v>
+        <v>576.7208882385085</v>
       </c>
       <c r="E5" t="n">
-        <v>657.3836285604862</v>
+        <v>190.9326356402643</v>
       </c>
       <c r="F5" t="n">
-        <v>588.0275389314648</v>
+        <v>183.9871348910608</v>
       </c>
       <c r="G5" t="n">
         <v>170.9397571678923</v>
@@ -4568,22 +4568,22 @@
         <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>280.4025554871572</v>
       </c>
       <c r="L5" t="n">
-        <v>610.4341993187981</v>
+        <v>833.2158137333564</v>
       </c>
       <c r="M5" t="n">
-        <v>1242.15201030211</v>
+        <v>1464.933624716668</v>
       </c>
       <c r="N5" t="n">
-        <v>1869.459678361956</v>
+        <v>1659.267837608651</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129034</v>
+        <v>2206.429042375728</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2317.163367625255</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1937.632725909846</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1937.632725909846</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1584.864070639732</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1335.822737154732</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163264</v>
+        <v>945.6834051789201</v>
       </c>
     </row>
     <row r="6">
@@ -4632,34 +4632,34 @@
         <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647829</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313602</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>613.1187833600796</v>
+        <v>636.5640407464026</v>
       </c>
       <c r="M6" t="n">
-        <v>1247.297767139118</v>
+        <v>1270.743024525441</v>
       </c>
       <c r="N6" t="n">
-        <v>1881.476750918157</v>
+        <v>1566.198609964619</v>
       </c>
       <c r="O6" t="n">
-        <v>2430.912759670879</v>
+        <v>2115.634618717342</v>
       </c>
       <c r="P6" t="n">
         <v>2539.602387198178</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.7692002828827</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>175.7584611936768</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>175.7584611936768</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>175.7584611936768</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>175.7584611936768</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>175.7584611936768</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>175.7584611936768</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>920.7035067467505</v>
+        <v>1041.505227027375</v>
       </c>
       <c r="S7" t="n">
-        <v>920.7035067467505</v>
+        <v>1041.505227027375</v>
       </c>
       <c r="T7" t="n">
-        <v>920.7035067467505</v>
+        <v>815.8760303397403</v>
       </c>
       <c r="U7" t="n">
-        <v>631.5513303244302</v>
+        <v>526.7238539174201</v>
       </c>
       <c r="V7" t="n">
-        <v>631.5513303244302</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="W7" t="n">
-        <v>631.5513303244302</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="X7" t="n">
-        <v>403.5617794264128</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.7692002828827</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496369</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="C8" t="n">
-        <v>474.7217947496369</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>474.7217947496369</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1876.889363126071</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1524.120707855957</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1150.654949594877</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137587</v>
+        <v>760.5156176190651</v>
       </c>
     </row>
     <row r="9">
@@ -4863,13 +4863,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4881,25 +4881,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5124,22 +5124,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768874</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944943</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F13" t="n">
-        <v>266.4891497944943</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G13" t="n">
-        <v>266.4891497944943</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="H13" t="n">
-        <v>124.7773186366924</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192497</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576786</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>219.0505596597682</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406468</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6607,10 +6607,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6692,37 +6692,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492579</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,19 +6841,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6965,19 +6965,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,16 +7072,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,10 +7166,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,43 +7181,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,25 +7424,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168596</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362671</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>56.30844904164147</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>175.5203270758761</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>51.34979150037363</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,16 +8216,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>126.6246104557358</v>
       </c>
       <c r="L5" t="n">
-        <v>319.2538912541072</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>360.6409890030561</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>459.2743913378118</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933068</v>
+        <v>97.77660988536664</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>30.36925650589438</v>
+        <v>35.91627445172492</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="I13" t="n">
-        <v>50.61478728573221</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>41.54258064659049</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>62.35543909864963</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.5789915191115</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>815390.4125758094</v>
+        <v>815390.4125758093</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.274728755</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161988</v>
+        <v>548460.0746161933</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299248</v>
+        <v>225009.9816299301</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843804</v>
+        <v>167098.1292843793</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243595676</v>
+        <v>498.7619243607927</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.114244742689309e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198058</v>
+        <v>247452.3619198073</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26424,40 +26424,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719635</v>
+      </c>
+      <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>7507.368461719692</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719688</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.36846171969</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.36846171969</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>7507.368461719677</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.36846171968</v>
-      </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719661</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.36846171963</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719698</v>
+        <v>7507.36846171972</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719759</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946042</v>
+        <v>80023.31371946004</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-157524.2016242171</v>
+        <v>-157524.2016242122</v>
       </c>
       <c r="C6" t="n">
-        <v>209575.9955621182</v>
+        <v>209575.9955621131</v>
       </c>
       <c r="D6" t="n">
-        <v>200674.903121632</v>
+        <v>200674.9031216326</v>
       </c>
       <c r="E6" t="n">
-        <v>90137.93481858286</v>
+        <v>90103.19689314661</v>
       </c>
       <c r="F6" t="n">
-        <v>597623.3764431282</v>
+        <v>597588.6385176929</v>
       </c>
       <c r="G6" t="n">
-        <v>597623.3764431287</v>
+        <v>597588.6385176929</v>
       </c>
       <c r="H6" t="n">
-        <v>597623.3764431286</v>
+        <v>597588.638517693</v>
       </c>
       <c r="I6" t="n">
-        <v>597623.3764431286</v>
+        <v>597588.6385176929</v>
       </c>
       <c r="J6" t="n">
-        <v>430525.2471587484</v>
+        <v>430490.5092333131</v>
       </c>
       <c r="K6" t="n">
-        <v>597124.6145187685</v>
+        <v>597089.8765933325</v>
       </c>
       <c r="L6" t="n">
-        <v>597623.3764431289</v>
+        <v>597588.6385176929</v>
       </c>
       <c r="M6" t="n">
-        <v>465016.0827142016</v>
+        <v>464981.3447887663</v>
       </c>
       <c r="N6" t="n">
-        <v>597623.3764431286</v>
+        <v>597588.6385176928</v>
       </c>
       <c r="O6" t="n">
-        <v>597623.3764431287</v>
+        <v>597588.6385176927</v>
       </c>
       <c r="P6" t="n">
-        <v>597623.3764431285</v>
+        <v>597588.6385176928</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817405</v>
+        <v>347.0634059817365</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621462</v>
+        <v>638.6468991621414</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817405</v>
+        <v>347.0634059817365</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563246</v>
+        <v>246.4126943563286</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621462</v>
+        <v>638.6468991621414</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937892697</v>
+        <v>1.937932937897457</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621462</v>
+        <v>638.6468991621414</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937892697</v>
+        <v>1.937932937897457</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621462</v>
+        <v>638.6468991621414</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937892697</v>
+        <v>1.937932937897457</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>113.638060266159</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051722</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548841</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387723</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337391</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>208.8626459878209</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1.812714020072264</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870426</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>93.07342787473175</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>78.33436087964596</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077895</v>
+        <v>136.6293971077897</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601711</v>
+        <v>49.11144063601763</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845157</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724861</v>
+        <v>149.1528076724864</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866936</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
-        <v>286.284891972296</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.7547821512934</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>338.2135170089804</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>123.1801805283193</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>25.09418201320176</v>
       </c>
       <c r="G6" t="n">
-        <v>70.53999045278843</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>160.306189400314</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.5937030778187</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>46.82377315958024</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>106.8602279574869</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>178.3375935296542</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
     </row>
     <row r="33">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30703,16 +30703,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,13 +30745,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30760,10 +30760,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>7.642805928361637e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790916</v>
+        <v>1.395229772790899</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059497</v>
+        <v>14.2888969105948</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552183</v>
+        <v>53.7895958155212</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284131</v>
+        <v>118.4183829284117</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106526</v>
+        <v>177.4784592106505</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697026</v>
+        <v>220.1777223697</v>
       </c>
       <c r="M2" t="n">
-        <v>244.990139841573</v>
+        <v>244.9901398415702</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335152</v>
+        <v>248.9543364335123</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803256</v>
+        <v>235.0805203803228</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645498</v>
+        <v>200.6357853645475</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264751</v>
+        <v>150.6691191264733</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507743</v>
+        <v>87.64310221507641</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747302</v>
+        <v>31.79379844747265</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392236</v>
+        <v>6.107618330392165</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232732</v>
+        <v>0.1116183818232719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682721</v>
+        <v>0.7465137411682634</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809366</v>
+        <v>7.209751131809282</v>
       </c>
       <c r="I3" t="n">
-        <v>25.7023371411006</v>
+        <v>25.7023371411003</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502523</v>
+        <v>70.5291776250244</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832995</v>
+        <v>120.545598283298</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426987</v>
+        <v>162.0884331426969</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600486</v>
+        <v>189.1495562600464</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821814</v>
+        <v>194.1557821821792</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857687</v>
+        <v>177.6146092857666</v>
       </c>
       <c r="P3" t="n">
-        <v>142.551382732387</v>
+        <v>142.5513827323853</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351488</v>
+        <v>95.29182422351377</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393888</v>
+        <v>46.34933561393834</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389311</v>
+        <v>13.86616532389295</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200183</v>
+        <v>3.008974246200148</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0491127461294916</v>
+        <v>0.04911274612949103</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736303</v>
+        <v>0.6258520435736231</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772827</v>
+        <v>5.564393623772762</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946882</v>
+        <v>18.8210778194686</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065567</v>
+        <v>44.24773948065515</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519086</v>
+        <v>72.71262833519002</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730139</v>
+        <v>93.04713018730031</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218279</v>
+        <v>98.10515261218166</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886297</v>
+        <v>95.77243135886187</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711644</v>
+        <v>88.46134157711542</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821432</v>
+        <v>75.69395988821344</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324281</v>
+        <v>52.40657430324221</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468341</v>
+        <v>28.14058370468308</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027863</v>
+        <v>10.9068942502785</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269147</v>
+        <v>2.674095095269116</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492533</v>
+        <v>0.03413738419492494</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,25 +34208,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738006</v>
+        <v>106.4690935737992</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368367</v>
+        <v>281.5340207368347</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501658</v>
+        <v>402.0725219501633</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071328</v>
+        <v>464.15744010713</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489085</v>
+        <v>456.8881972489056</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213842</v>
+        <v>385.7824902213815</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807629</v>
+        <v>291.2014977807606</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119303</v>
+        <v>140.6784199119285</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>69.78258629876655</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2244863848166</v>
+        <v>247.1693963215176</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662837</v>
+        <v>394.3743986662819</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880301</v>
+        <v>512.720586088028</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424016</v>
+        <v>542.1564444423993</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180538</v>
+        <v>428.8806841180517</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579939</v>
+        <v>327.0397439579922</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733425</v>
+        <v>6.659841637865886</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.443136509308</v>
+        <v>50.44313650930717</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476175</v>
+        <v>120.6371554476165</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740234</v>
+        <v>137.6890295740222</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380916</v>
+        <v>139.9046037380905</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911561</v>
+        <v>113.0464694911551</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310781</v>
+        <v>72.97251915310693</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>210.0217362886574</v>
       </c>
       <c r="L5" t="n">
-        <v>459.9899072553731</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -34954,7 +34954,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>499.2567445744642</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>298.4399852920986</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>280.0487856294267</v>
+        <v>285.5958035752572</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
